--- a/resources/wheels/181 - Шляхтенок.xlsx
+++ b/resources/wheels/181 - Шляхтенок.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -714,16 +714,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -932,9 +932,9 @@
       <c r="F16" s="21">
         <v>0.8</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>9.9</v>
+        <v>14.725</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1014,8 +1014,8 @@
       <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="21">
-        <v>2.6</v>
+      <c r="F22" s="21" t="n">
+        <v>2.635</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="4"/>
@@ -1028,7 +1028,9 @@
       <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21" t="n">
+        <v>2.531</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="4"/>
     </row>
@@ -1040,7 +1042,9 @@
       <c r="E24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>2.259</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
     </row>
@@ -1596,16 +1600,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1824,9 +1828,9 @@
       <c r="F16" s="21">
         <v>1.2</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>12.6</v>
+        <v>20.025</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1922,7 +1926,9 @@
       <c r="E23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21" t="n">
+        <v>2.635</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="4"/>
     </row>
@@ -1934,7 +1940,9 @@
       <c r="E24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>2.531</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
     </row>
@@ -1946,7 +1954,9 @@
       <c r="E25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>2.259</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
     </row>
@@ -2494,16 +2504,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2722,9 +2732,9 @@
       <c r="F16" s="21">
         <v>1.2</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>12.6</v>
+        <v>20.025</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -2820,7 +2830,9 @@
       <c r="E23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="21"/>
+      <c r="F23" s="21" t="n">
+        <v>2.635</v>
+      </c>
       <c r="G23" s="21"/>
       <c r="H23" s="4"/>
     </row>
@@ -2832,7 +2844,9 @@
       <c r="E24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>2.531</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
     </row>
@@ -2844,7 +2858,9 @@
       <c r="E25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>2.259</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
     </row>
@@ -3392,16 +3408,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3620,9 +3636,9 @@
       <c r="F16" s="21">
         <v>26.6</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.200000000000003</v>
+        <v>46.625</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -3732,7 +3748,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>2.635</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
     </row>
@@ -3744,7 +3762,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>2.531</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
     </row>
@@ -3756,7 +3776,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>2.259</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
     </row>
@@ -4296,16 +4318,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="1" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="1" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -4524,9 +4546,9 @@
       <c r="F16" s="21">
         <v>26.6</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>39.200000000000003</v>
+        <v>46.625</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -4636,7 +4658,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>2.635</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
     </row>
@@ -4648,7 +4672,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>2.531</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
     </row>
@@ -4660,7 +4686,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>2.259</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
     </row>
@@ -5200,16 +5228,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -5408,9 +5436,9 @@
       <c r="F16" s="21">
         <v>43.9</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>57.1</v>
+        <v>64.52499999999999</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -5514,7 +5542,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>2.635</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
     </row>
@@ -5524,7 +5554,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>2.531</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
     </row>
@@ -5534,7 +5566,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>2.259</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
     </row>
@@ -6053,16 +6087,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17" style="18" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="1" width="19.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="18" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="18" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="1" width="17.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="1" width="16.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="1" width="18.140625" collapsed="true"/>
+    <col min="10" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -6261,9 +6295,9 @@
       <c r="F16" s="21">
         <v>43.9</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>57.1</v>
+        <v>64.52499999999999</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -6367,7 +6401,9 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21"/>
+      <c r="F24" s="21" t="n">
+        <v>2.635</v>
+      </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
     </row>
@@ -6377,7 +6413,9 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21" t="n">
+        <v>2.531</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
     </row>
@@ -6387,7 +6425,9 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21" t="n">
+        <v>2.259</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
     </row>

--- a/resources/wheels/181 - Шляхтенок.xlsx
+++ b/resources/wheels/181 - Шляхтенок.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="63">
   <si>
     <t>Карточка учета работы автомобильной шины</t>
   </si>
@@ -178,6 +178,42 @@
   </si>
   <si>
     <t>AH 3129-7</t>
+  </si>
+  <si>
+    <t>январь 2021</t>
+  </si>
+  <si>
+    <t>февраль 2021</t>
+  </si>
+  <si>
+    <t>март 2021</t>
+  </si>
+  <si>
+    <t>апрель 2021</t>
+  </si>
+  <si>
+    <t>май 2021</t>
+  </si>
+  <si>
+    <t>июнь 2021</t>
+  </si>
+  <si>
+    <t>июль 2021</t>
+  </si>
+  <si>
+    <t>август 2021</t>
+  </si>
+  <si>
+    <t>сентябрь 2021</t>
+  </si>
+  <si>
+    <t>октябрь 2021</t>
+  </si>
+  <si>
+    <t>ноябрь 2021</t>
+  </si>
+  <si>
+    <t>декабрь 2021</t>
   </si>
 </sst>
 </file>
@@ -709,7 +745,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E29" sqref="E29:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -934,7 +970,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>14.725</v>
+        <v>19.721</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1014,8 +1050,8 @@
       <c r="E22" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F22" s="21" t="n">
-        <v>2.635</v>
+      <c r="F22" s="21">
+        <v>2.6349999999999998</v>
       </c>
       <c r="G22" s="21"/>
       <c r="H22" s="4"/>
@@ -1028,8 +1064,8 @@
       <c r="E23" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="21" t="n">
-        <v>2.531</v>
+      <c r="F23" s="21">
+        <v>2.5310000000000001</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="4"/>
@@ -1042,8 +1078,8 @@
       <c r="E24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="21" t="n">
-        <v>2.259</v>
+      <c r="F24" s="21">
+        <v>2.2589999999999999</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
@@ -1056,7 +1092,9 @@
       <c r="E25" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="21"/>
+      <c r="F25" s="21">
+        <v>2.2080000000000002</v>
+      </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
     </row>
@@ -1068,7 +1106,9 @@
       <c r="E26" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21">
+        <v>1.298</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
     </row>
@@ -1080,7 +1120,9 @@
       <c r="E27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21" t="n">
+        <v>1.49</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="4"/>
     </row>
@@ -1097,7 +1139,12 @@
       <c r="B29" s="4"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="21" t="n">
+        <v>0.224</v>
+      </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1105,7 +1152,9 @@
       <c r="B30" s="4"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
@@ -1115,7 +1164,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="18"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -1125,7 +1176,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -1135,7 +1188,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -1145,7 +1200,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -1155,7 +1212,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -1165,7 +1224,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -1175,7 +1236,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -1185,7 +1248,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -1195,7 +1260,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -1205,7 +1272,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -1595,7 +1664,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E29" sqref="E29:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1830,7 +1899,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>20.025</v>
+        <v>25.020999999999997</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -1926,8 +1995,8 @@
       <c r="E23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="21" t="n">
-        <v>2.635</v>
+      <c r="F23" s="21">
+        <v>2.6349999999999998</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="4"/>
@@ -1940,8 +2009,8 @@
       <c r="E24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="21" t="n">
-        <v>2.531</v>
+      <c r="F24" s="21">
+        <v>2.5310000000000001</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
@@ -1954,8 +2023,8 @@
       <c r="E25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>2.259</v>
+      <c r="F25" s="21">
+        <v>2.2589999999999999</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
@@ -1968,7 +2037,9 @@
       <c r="E26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21">
+        <v>2.2080000000000002</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
     </row>
@@ -1980,7 +2051,9 @@
       <c r="E27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>1.298</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="4"/>
     </row>
@@ -1992,7 +2065,9 @@
       <c r="E28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21" t="n">
+        <v>1.49</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="4"/>
     </row>
@@ -2001,7 +2076,12 @@
       <c r="B29" s="4"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="21" t="n">
+        <v>0.224</v>
+      </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2009,7 +2089,9 @@
       <c r="B30" s="4"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
@@ -2019,7 +2101,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="18"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -2029,7 +2113,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -2039,7 +2125,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -2049,7 +2137,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -2059,7 +2149,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -2069,7 +2161,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -2079,7 +2173,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -2089,7 +2185,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -2099,7 +2197,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -2109,7 +2209,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -2498,8 +2600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2734,7 +2836,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>20.025</v>
+        <v>25.020999999999997</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -2830,8 +2932,8 @@
       <c r="E23" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F23" s="21" t="n">
-        <v>2.635</v>
+      <c r="F23" s="21">
+        <v>2.6349999999999998</v>
       </c>
       <c r="G23" s="21"/>
       <c r="H23" s="4"/>
@@ -2844,8 +2946,8 @@
       <c r="E24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="21" t="n">
-        <v>2.531</v>
+      <c r="F24" s="21">
+        <v>2.5310000000000001</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
@@ -2858,8 +2960,8 @@
       <c r="E25" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>2.259</v>
+      <c r="F25" s="21">
+        <v>2.2589999999999999</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
@@ -2872,7 +2974,9 @@
       <c r="E26" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F26" s="21"/>
+      <c r="F26" s="21">
+        <v>2.2080000000000002</v>
+      </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
     </row>
@@ -2884,7 +2988,9 @@
       <c r="E27" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>1.298</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="4"/>
     </row>
@@ -2896,7 +3002,9 @@
       <c r="E28" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21" t="n">
+        <v>1.49</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="4"/>
     </row>
@@ -2905,7 +3013,12 @@
       <c r="B29" s="4"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
-      <c r="G29" s="21"/>
+      <c r="E29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="21" t="n">
+        <v>0.224</v>
+      </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -2913,7 +3026,9 @@
       <c r="B30" s="4"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
@@ -2923,7 +3038,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="18"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -2933,7 +3050,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -2943,7 +3062,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -2953,7 +3074,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -2963,7 +3086,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -2973,7 +3098,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -2983,7 +3110,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -2993,7 +3122,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -3003,7 +3134,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -3013,7 +3146,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -3403,7 +3538,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E29" sqref="E29:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3638,7 +3773,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>46.625</v>
+        <v>50.355</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -3748,8 +3883,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21" t="n">
-        <v>2.635</v>
+      <c r="F24" s="21">
+        <v>2.6349999999999998</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
@@ -3762,8 +3897,8 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>2.531</v>
+      <c r="F25" s="21">
+        <v>2.5310000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
@@ -3776,8 +3911,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="21" t="n">
-        <v>2.259</v>
+      <c r="F26" s="21">
+        <v>2.2589999999999999</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
@@ -3790,7 +3925,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.2080000000000002</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="4"/>
     </row>
@@ -3802,7 +3939,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.298</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="4"/>
     </row>
@@ -3812,9 +3951,11 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="F29" s="21" t="n">
+        <v>0.224</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="4"/>
     </row>
@@ -3823,7 +3964,9 @@
       <c r="B30" s="4"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
@@ -3833,7 +3976,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="18"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -3843,7 +3988,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -3853,7 +4000,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -3863,7 +4012,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -3873,7 +4024,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -3883,7 +4036,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -3893,7 +4048,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -3903,7 +4060,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -3913,7 +4072,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -3923,7 +4084,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -4313,7 +4476,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E29" sqref="E29:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4548,7 +4711,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>46.625</v>
+        <v>50.355</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -4658,8 +4821,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21" t="n">
-        <v>2.635</v>
+      <c r="F24" s="21">
+        <v>2.6349999999999998</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
@@ -4672,8 +4835,8 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>2.531</v>
+      <c r="F25" s="21">
+        <v>2.5310000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
@@ -4686,8 +4849,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="21" t="n">
-        <v>2.259</v>
+      <c r="F26" s="21">
+        <v>2.2589999999999999</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
@@ -4700,7 +4863,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.2080000000000002</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="4"/>
     </row>
@@ -4712,7 +4877,9 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="21"/>
+      <c r="F28" s="21">
+        <v>1.298</v>
+      </c>
       <c r="G28" s="21"/>
       <c r="H28" s="4"/>
     </row>
@@ -4722,9 +4889,11 @@
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F29" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="F29" s="21" t="n">
+        <v>0.224</v>
+      </c>
       <c r="G29" s="21"/>
       <c r="H29" s="4"/>
     </row>
@@ -4733,7 +4902,9 @@
       <c r="B30" s="4"/>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
@@ -4743,7 +4914,9 @@
       <c r="B31" s="4"/>
       <c r="C31" s="18"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -4753,7 +4926,9 @@
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -4763,7 +4938,9 @@
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -4773,7 +4950,9 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -4783,7 +4962,9 @@
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -4793,7 +4974,9 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -4803,7 +4986,9 @@
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
       <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -4813,7 +4998,9 @@
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -4823,7 +5010,9 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -4833,7 +5022,9 @@
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -5223,7 +5414,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E29" sqref="E29:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5438,7 +5629,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>64.52499999999999</v>
+        <v>66.73299999999999</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -5542,8 +5733,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21" t="n">
-        <v>2.635</v>
+      <c r="F24" s="21">
+        <v>2.6349999999999998</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
@@ -5554,8 +5745,8 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>2.531</v>
+      <c r="F25" s="21">
+        <v>2.5310000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
@@ -5566,8 +5757,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="21" t="n">
-        <v>2.259</v>
+      <c r="F26" s="21">
+        <v>2.2589999999999999</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
@@ -5578,7 +5769,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.2080000000000002</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="4"/>
     </row>
@@ -5588,22 +5781,28 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>1.298</v>
+      </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="E29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="G29" s="21" t="n">
+        <v>0.224</v>
+      </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
@@ -5612,7 +5811,9 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -5621,7 +5822,9 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -5630,7 +5833,9 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -5639,7 +5844,9 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -5648,7 +5855,9 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -5657,7 +5866,9 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -5666,7 +5877,9 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -5675,7 +5888,9 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="D38" s="22"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -5684,7 +5899,9 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="D39" s="22"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -5693,7 +5910,9 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="D40" s="22"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
@@ -6082,7 +6301,7 @@
   <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E29" sqref="E29:E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -6297,7 +6516,7 @@
       </c>
       <c r="G16" s="21" t="n">
         <f>SUM(F16:F100)</f>
-        <v>64.52499999999999</v>
+        <v>66.73299999999999</v>
       </c>
       <c r="H16" s="4"/>
     </row>
@@ -6401,8 +6620,8 @@
       <c r="E24" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="F24" s="21" t="n">
-        <v>2.635</v>
+      <c r="F24" s="21">
+        <v>2.6349999999999998</v>
       </c>
       <c r="G24" s="21"/>
       <c r="H24" s="4"/>
@@ -6413,8 +6632,8 @@
       <c r="E25" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="21" t="n">
-        <v>2.531</v>
+      <c r="F25" s="21">
+        <v>2.5310000000000001</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="4"/>
@@ -6425,8 +6644,8 @@
       <c r="E26" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="21" t="n">
-        <v>2.259</v>
+      <c r="F26" s="21">
+        <v>2.2589999999999999</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="4"/>
@@ -6437,7 +6656,9 @@
       <c r="E27" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="F27" s="21"/>
+      <c r="F27" s="21">
+        <v>2.2080000000000002</v>
+      </c>
       <c r="G27" s="21"/>
       <c r="H27" s="4"/>
     </row>
@@ -6447,22 +6668,28 @@
       <c r="E28" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="21"/>
+      <c r="G28" s="21">
+        <v>1.298</v>
+      </c>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="E29" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="21"/>
+        <v>51</v>
+      </c>
+      <c r="G29" s="21" t="n">
+        <v>0.224</v>
+      </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>52</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="4"/>
@@ -6471,7 +6698,9 @@
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="D31" s="22"/>
-      <c r="E31" s="14"/>
+      <c r="E31" s="13" t="s">
+        <v>53</v>
+      </c>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="4"/>
@@ -6480,7 +6709,9 @@
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="D32" s="22"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13" t="s">
+        <v>54</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="4"/>
@@ -6489,7 +6720,9 @@
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="D33" s="22"/>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13" t="s">
+        <v>55</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="4"/>
@@ -6498,7 +6731,9 @@
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="D34" s="22"/>
-      <c r="E34" s="14"/>
+      <c r="E34" s="13" t="s">
+        <v>56</v>
+      </c>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="4"/>
@@ -6507,7 +6742,9 @@
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="D35" s="22"/>
-      <c r="E35" s="14"/>
+      <c r="E35" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="4"/>
@@ -6516,7 +6753,9 @@
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="D36" s="22"/>
-      <c r="E36" s="14"/>
+      <c r="E36" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="4"/>
@@ -6525,7 +6764,9 @@
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="D37" s="22"/>
-      <c r="E37" s="14"/>
+      <c r="E37" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="4"/>
@@ -6534,7 +6775,9 @@
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="D38" s="22"/>
-      <c r="E38" s="14"/>
+      <c r="E38" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4"/>
@@ -6543,7 +6786,9 @@
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="D39" s="22"/>
-      <c r="E39" s="14"/>
+      <c r="E39" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="4"/>
@@ -6552,7 +6797,9 @@
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="D40" s="22"/>
-      <c r="E40" s="14"/>
+      <c r="E40" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="4"/>
